--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muravevms\Desktop\Хакатон Краснодар\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12160" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12156"/>
   </bookViews>
   <sheets>
     <sheet name="Входные данные для анализа" sheetId="1" r:id="rId1"/>
     <sheet name="Справочник задач" sheetId="2" r:id="rId2"/>
     <sheet name="Справочник сотрудников" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="101">
   <si>
     <t>Кол-во одобренных заявок</t>
   </si>
@@ -156,9 +151,6 @@
     <t>ул. Ставропольская, д. 140</t>
   </si>
   <si>
-    <t>ул. им. Максима Горького, д. 128</t>
-  </si>
-  <si>
     <t>ул. им. Дзержинского, д. 100</t>
   </si>
   <si>
@@ -219,9 +211,6 @@
     <t>ул. им. Героя Аверкиева А.А., д. 8</t>
   </si>
   <si>
-    <t>ул. им. Героя Аверкиева А.А., д. 8/1 к. мая, кв. 268</t>
-  </si>
-  <si>
     <t>ул. им. Тургенева, д. 106</t>
   </si>
   <si>
@@ -331,12 +320,27 @@
   </si>
   <si>
     <t>Быстрое трудоустройство в Краснодар:</t>
+  </si>
+  <si>
+    <t>ул. им. Дзержинского, д. 101</t>
+  </si>
+  <si>
+    <t>ул. им. Дзержинского, д. 102</t>
+  </si>
+  <si>
+    <t>ул. Горького, д. 128</t>
+  </si>
+  <si>
+    <t>ул. Северная, д. 327</t>
+  </si>
+  <si>
+    <t>ул. Уральская, д. 78</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -551,12 +555,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -577,6 +575,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -689,7 +693,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -741,7 +745,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -935,7 +939,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -943,57 +947,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="2" width="45.25" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" customWidth="1"/>
-    <col min="5" max="5" width="25.75" customWidth="1"/>
-    <col min="6" max="6" width="20.08203125" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1"/>
-    <col min="11" max="11" width="38.08203125" customWidth="1"/>
-    <col min="12" max="12" width="20.58203125" customWidth="1"/>
-    <col min="13" max="13" width="24.25" customWidth="1"/>
-    <col min="14" max="14" width="15.08203125" customWidth="1"/>
-    <col min="15" max="15" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" customWidth="1"/>
+    <col min="2" max="2" width="45.19921875" customWidth="1"/>
+    <col min="3" max="3" width="14.69921875" customWidth="1"/>
+    <col min="4" max="4" width="18.796875" customWidth="1"/>
+    <col min="5" max="5" width="25.69921875" customWidth="1"/>
+    <col min="6" max="6" width="20.09765625" customWidth="1"/>
+    <col min="7" max="7" width="15.296875" customWidth="1"/>
+    <col min="10" max="10" width="11.69921875" customWidth="1"/>
+    <col min="11" max="11" width="38.09765625" customWidth="1"/>
+    <col min="12" max="12" width="20.59765625" customWidth="1"/>
+    <col min="13" max="13" width="24.19921875" customWidth="1"/>
+    <col min="14" max="14" width="15.09765625" customWidth="1"/>
+    <col min="15" max="15" width="19.296875" customWidth="1"/>
     <col min="16" max="16" width="12.5" customWidth="1"/>
-    <col min="17" max="17" width="21.83203125" customWidth="1"/>
+    <col min="17" max="17" width="21.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="18" t="s">
+    <row r="1" spans="1:11" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="18" t="s">
+      <c r="F1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1016,12 +1020,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>16</v>
@@ -1039,12 +1043,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>16</v>
@@ -1062,12 +1066,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>16</v>
@@ -1085,12 +1089,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>16</v>
@@ -1108,12 +1112,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>16</v>
@@ -1130,16 +1134,16 @@
       <c r="G7" s="13">
         <v>1</v>
       </c>
-      <c r="K7" s="19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K7" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>16</v>
@@ -1156,16 +1160,16 @@
       <c r="G8" s="13">
         <v>12</v>
       </c>
-      <c r="K8" s="20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K8" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>16</v>
@@ -1182,16 +1186,16 @@
       <c r="G9" s="13">
         <v>63</v>
       </c>
-      <c r="K9" s="23" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K9" s="21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>16</v>
@@ -1208,16 +1212,16 @@
       <c r="G10" s="13">
         <v>1</v>
       </c>
-      <c r="K10" s="21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K10" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>16</v>
@@ -1234,16 +1238,16 @@
       <c r="G11" s="13">
         <v>0</v>
       </c>
-      <c r="K11" s="22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K11" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>16</v>
@@ -1261,12 +1265,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>15</v>
@@ -1284,12 +1288,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>16</v>
@@ -1307,12 +1311,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>15</v>
@@ -1330,12 +1334,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>16</v>
@@ -1353,12 +1357,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>15</v>
@@ -1376,12 +1380,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.65" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -1389,12 +1393,12 @@
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="1:7" ht="15.65" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -1402,12 +1406,12 @@
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="1:7" ht="15.65" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>16</v>
@@ -1425,12 +1429,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>16</v>
@@ -1448,12 +1452,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>15</v>
@@ -1471,12 +1475,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>16</v>
@@ -1494,104 +1498,104 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>24</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="13">
+        <v>2</v>
+      </c>
+      <c r="F24" s="13">
+        <v>96</v>
+      </c>
+      <c r="G24" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="13">
-        <v>0</v>
-      </c>
-      <c r="F24" s="13">
+      <c r="C25" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="7">
-        <v>24</v>
-      </c>
-      <c r="B25" s="6" t="s">
+      <c r="D25" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="13">
+        <v>0</v>
+      </c>
+      <c r="F25" s="13">
+        <v>0</v>
+      </c>
+      <c r="G25" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>26</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="13">
-        <v>2</v>
-      </c>
-      <c r="F25" s="13">
-        <v>96</v>
-      </c>
-      <c r="G25" s="13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="13">
+        <v>0</v>
+      </c>
+      <c r="F26" s="13">
+        <v>16</v>
+      </c>
+      <c r="G26" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="13">
-        <v>0</v>
-      </c>
-      <c r="F26" s="13">
-        <v>0</v>
-      </c>
-      <c r="G26" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="7">
-        <v>26</v>
-      </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="13">
+        <v>3</v>
+      </c>
+      <c r="F27" s="13">
+        <v>43</v>
+      </c>
+      <c r="G27" s="13">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="13">
-        <v>0</v>
-      </c>
-      <c r="F27" s="13">
-        <v>16</v>
-      </c>
-      <c r="G27" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>16</v>
@@ -1603,250 +1607,250 @@
         <v>3</v>
       </c>
       <c r="F28" s="13">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="G28" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
       <c r="B29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="13">
+        <v>6</v>
+      </c>
+      <c r="F29" s="13">
+        <v>19</v>
+      </c>
+      <c r="G29" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="13">
+      <c r="C30" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="13">
+        <v>16</v>
+      </c>
+      <c r="F30" s="13">
+        <v>45</v>
+      </c>
+      <c r="G30" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="13">
+        <v>1</v>
+      </c>
+      <c r="F31" s="13">
+        <v>19</v>
+      </c>
+      <c r="G31" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>32</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="13">
         <v>3</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F32" s="13">
+        <v>20</v>
+      </c>
+      <c r="G32" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="13">
+        <v>0</v>
+      </c>
+      <c r="F33" s="13">
+        <v>19</v>
+      </c>
+      <c r="G33" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>34</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="13">
+        <v>76</v>
+      </c>
+      <c r="F34" s="13">
+        <v>82</v>
+      </c>
+      <c r="G34" s="13">
+        <v>72</v>
+      </c>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>35</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="13">
+        <v>23</v>
+      </c>
+      <c r="F35" s="13">
+        <v>32</v>
+      </c>
+      <c r="G35" s="13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="13">
+        <v>4</v>
+      </c>
+      <c r="F36" s="13">
+        <v>19</v>
+      </c>
+      <c r="G36" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>37</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="13">
+        <v>9</v>
+      </c>
+      <c r="F37" s="13">
+        <v>10</v>
+      </c>
+      <c r="G37" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <v>38</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="13">
+        <v>0</v>
+      </c>
+      <c r="F38" s="13">
         <v>13</v>
       </c>
-      <c r="G29" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="13">
-        <v>6</v>
-      </c>
-      <c r="F30" s="13">
-        <v>19</v>
-      </c>
-      <c r="G30" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="13">
-        <v>16</v>
-      </c>
-      <c r="F31" s="13">
-        <v>45</v>
-      </c>
-      <c r="G31" s="13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="13">
-        <v>1</v>
-      </c>
-      <c r="F32" s="13">
-        <v>19</v>
-      </c>
-      <c r="G32" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="13">
-        <v>3</v>
-      </c>
-      <c r="F33" s="13">
-        <v>20</v>
-      </c>
-      <c r="G33" s="13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="13">
-        <v>0</v>
-      </c>
-      <c r="F34" s="13">
-        <v>19</v>
-      </c>
-      <c r="G34" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="13">
-        <v>76</v>
-      </c>
-      <c r="F35" s="13">
-        <v>82</v>
-      </c>
-      <c r="G35" s="13">
-        <v>72</v>
-      </c>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="13">
-        <v>23</v>
-      </c>
-      <c r="F36" s="13">
-        <v>32</v>
-      </c>
-      <c r="G36" s="13">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="13">
-        <v>4</v>
-      </c>
-      <c r="F37" s="13">
-        <v>19</v>
-      </c>
-      <c r="G37" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38" s="13">
-        <v>9</v>
-      </c>
-      <c r="F38" s="13">
-        <v>10</v>
-      </c>
       <c r="G38" s="13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="7">
-        <v>38</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>72</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>39</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>15</v>
@@ -1858,41 +1862,41 @@
         <v>0</v>
       </c>
       <c r="F39" s="13">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G39" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E40" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F40" s="13">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G40" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>16</v>
@@ -1904,97 +1908,74 @@
         <v>6</v>
       </c>
       <c r="F41" s="13">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="G41" s="13">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="2">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="7">
+        <v>42</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="13">
+        <v>3</v>
+      </c>
+      <c r="F42" s="13">
+        <v>20</v>
+      </c>
+      <c r="G42" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>43</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E42" s="13">
-        <v>6</v>
-      </c>
-      <c r="F42" s="13">
-        <v>65</v>
-      </c>
-      <c r="G42" s="13">
-        <v>12</v>
-      </c>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="7">
-        <v>42</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="C43" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E43" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F43" s="13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G43" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="2">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E44" s="13">
-        <v>0</v>
-      </c>
-      <c r="F44" s="13">
-        <v>0</v>
-      </c>
-      <c r="G44" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="6:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F49" s="10"/>
-    </row>
-    <row r="50" spans="6:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" spans="6:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="6:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F50" s="8"/>
     </row>
-    <row r="51" spans="6:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F51" s="8"/>
     </row>
-    <row r="52" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F52" s="8"/>
-    </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F53" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2015,26 +1996,26 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.25" customWidth="1"/>
-    <col min="2" max="2" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.58203125" customWidth="1"/>
-    <col min="4" max="4" width="18.9140625" customWidth="1"/>
-    <col min="5" max="5" width="61.08203125" customWidth="1"/>
-    <col min="6" max="6" width="51.33203125" customWidth="1"/>
-    <col min="7" max="7" width="30.1640625" customWidth="1"/>
+    <col min="1" max="1" width="6.19921875" customWidth="1"/>
+    <col min="2" max="2" width="38.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="18.8984375" customWidth="1"/>
+    <col min="5" max="5" width="61.09765625" customWidth="1"/>
+    <col min="6" max="6" width="51.296875" customWidth="1"/>
+    <col min="7" max="7" width="30.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -2046,10 +2027,10 @@
         <v>19</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2057,10 +2038,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>34</v>
@@ -2072,7 +2053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2080,22 +2061,22 @@
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>79</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>81</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2103,10 +2084,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>23</v>
@@ -2118,11 +2099,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E5" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" s="16"/>
+    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2137,19 +2118,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.58203125" customWidth="1"/>
-    <col min="2" max="2" width="32.58203125" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="30.59765625" customWidth="1"/>
+    <col min="2" max="2" width="32.59765625" customWidth="1"/>
+    <col min="3" max="3" width="10.296875" customWidth="1"/>
     <col min="4" max="4" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="21.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
@@ -2160,7 +2141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
@@ -2171,7 +2152,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
@@ -2182,7 +2163,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -2193,7 +2174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -2204,7 +2185,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
@@ -2215,7 +2196,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
@@ -2226,9 +2207,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>33</v>
@@ -2237,9 +2218,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>33</v>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -939,7 +939,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -949,10 +949,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="A24:XFD24"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1132,7 +1132,7 @@
         <v>19</v>
       </c>
       <c r="G7" s="13">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="K7" s="17" t="s">
         <v>91</v>
